--- a/Proyectos/2015/11/P1347 - CCOM, Martin Ochoa _MO/Ventas/Estimacion.xlsx
+++ b/Proyectos/2015/11/P1347 - CCOM, Martin Ochoa _MO/Ventas/Estimacion.xlsx
@@ -20,10 +20,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
-    <t>Administración de costos del proyecto "nombre de proyecto"</t>
-  </si>
-  <si>
-    <t>Administrador de proyecto:   Fecha: </t>
+    <t>Administración de costos del proyecto</t>
+  </si>
+  <si>
+    <t>Costos de proyecto</t>
   </si>
   <si>
     <t>Costo por etapas de proyecto</t>
@@ -194,7 +194,7 @@
     <t>Contpaq i® Comercial U. Base Producto Nuevo Multiempresa  R</t>
   </si>
   <si>
-    <t>Remotamente</t>
+    <t>Paquete de 5 horas de Asesoría y Soporte Técnico Contpaq i®, Servicio vía Remota</t>
   </si>
   <si>
     <t>Costo por hora de empleados a partir de puesto</t>
@@ -442,9 +442,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.8418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,7 +478,7 @@
       </c>
       <c r="B5" s="3" t="n">
         <f aca="false">servicios!B1</f>
-        <v>8913.08</v>
+        <v>8788.08</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,7 +491,7 @@
       </c>
       <c r="B7" s="1" t="n">
         <f aca="false">SUM(B3:B5)</f>
-        <v>9076.3139</v>
+        <v>8951.3139</v>
       </c>
     </row>
   </sheetData>
@@ -510,10 +510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G65536"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="E12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -525,7 +525,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.3214285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="98.4693877551021"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="n">
-        <f aca="false">SUM(E$1:E$1048572)</f>
+        <f aca="false">SUM(E:E)</f>
         <v>163.2339</v>
       </c>
     </row>
@@ -722,7 +722,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -1089,12 +1089,7 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1119,11 +1114,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.4132653061225"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6836734693878"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3826530612245"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,7 +1127,7 @@
       </c>
       <c r="B1" s="3" t="n">
         <f aca="false">SUM(D2:D100)</f>
-        <v>8913.08</v>
+        <v>8788.08</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,13 +1163,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>550</v>
+        <v>2625</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2750</v>
+        <v>2625</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1198,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5765306122449"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
